--- a/src/MaterialCodeSelectionPlatform/MaterialCodeSelectionPlatform.Web/Templates/管道综合材料表/管道综合材料表_ENG.xlsx
+++ b/src/MaterialCodeSelectionPlatform/MaterialCodeSelectionPlatform.Web/Templates/管道综合材料表/管道综合材料表_ENG.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE1FDD2-EB5C-48C9-B9B9-6DCD481716C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67B73CA-15D5-414C-B99D-6DF5DBA75C88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1372,12 +1372,75 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1385,69 +1448,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1930,654 +1930,624 @@
     <row r="1" spans="2:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="1"/>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="14" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="18" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="19"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="22"/>
     </row>
     <row r="3" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="20" t="s">
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="20"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="22"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="25"/>
     </row>
     <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="17" t="s">
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="22"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="25"/>
     </row>
     <row r="5" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="22"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="25"/>
     </row>
     <row r="6" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="13"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="20" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="R6" s="20"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="22"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="25"/>
     </row>
     <row r="7" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="13"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="20" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="R7" s="20"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="22"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="25"/>
     </row>
     <row r="8" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="28"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="8"/>
     </row>
     <row r="9" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="29"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="28"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="8"/>
     </row>
     <row r="10" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="29"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="28"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="8"/>
     </row>
     <row r="11" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="29"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="28"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="8"/>
     </row>
     <row r="12" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="29"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="28"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="8"/>
     </row>
     <row r="13" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="29"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="28"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="8"/>
     </row>
     <row r="14" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="29"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="28"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="8"/>
     </row>
     <row r="15" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="29"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="28"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="8"/>
     </row>
     <row r="16" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="29"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="28"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="8"/>
     </row>
     <row r="17" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="29"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="28"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="8"/>
     </row>
     <row r="18" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="29"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="28"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="8"/>
     </row>
     <row r="19" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="29"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="28"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="8"/>
     </row>
     <row r="20" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="29"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="28"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="8"/>
     </row>
     <row r="21" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="29"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="28"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="8"/>
     </row>
     <row r="22" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="29"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="28"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="8"/>
     </row>
     <row r="23" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="29"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="28"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="8"/>
     </row>
     <row r="24" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="29"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="28"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="8"/>
     </row>
     <row r="25" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="8"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="30"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="11"/>
     </row>
     <row r="26" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="8"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="30"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="11"/>
     </row>
     <row r="27" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="8"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="30"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="11"/>
     </row>
     <row r="28" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="8"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="30"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="11"/>
     </row>
     <row r="29" spans="2:20" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="7" t="s">
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7" t="s">
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7" t="s">
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7" t="s">
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7" t="s">
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="S29" s="7"/>
-      <c r="T29" s="31"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B8:T24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="B5:E7"/>
-    <mergeCell ref="F2:P3"/>
-    <mergeCell ref="F4:P7"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="Q4:T5"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
     <mergeCell ref="L29:N29"/>
     <mergeCell ref="I28:K28"/>
     <mergeCell ref="L28:N28"/>
@@ -2588,6 +2558,36 @@
     <mergeCell ref="I27:K27"/>
     <mergeCell ref="L27:N27"/>
     <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="B5:E7"/>
+    <mergeCell ref="F2:P3"/>
+    <mergeCell ref="F4:P7"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="Q4:T5"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="B8:T24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="I29:K29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.39370078740157499" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.31496062992126"/>
@@ -2601,7 +2601,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
